--- a/staticdata/t_static_data.xlsx
+++ b/staticdata/t_static_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16030\Desktop\userfile\wordfile\新的开始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workspacegit\material-manage\staticdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E6F6C-ED62-4BD9-9802-BC62ADF88EA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532A27F-94A5-461F-8A63-062C758662F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DEE5ADC-4333-4CD8-B85D-CE9A221104DA}"/>
+    <workbookView xWindow="3690" yWindow="1095" windowWidth="15375" windowHeight="9615" xr2:uid="{8DEE5ADC-4333-4CD8-B85D-CE9A221104DA}"/>
   </bookViews>
   <sheets>
     <sheet name="t_static_data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t>模具类型</t>
   </si>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sort_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +390,70 @@
   </si>
   <si>
     <t>PAYMENT_METHOD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具采购种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCUREMENT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样板收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样板类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通样板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模冲样板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99AF19-65C1-461C-909C-EF41E1F3A0B7}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -802,19 +862,19 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,13 +1314,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>31</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1289,13 +1349,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>1.6</v>
@@ -1324,13 +1384,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>1.5</v>
@@ -1359,13 +1419,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>1.4</v>
@@ -1394,13 +1454,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -1429,13 +1489,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1464,13 +1524,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>0.8</v>
@@ -1499,13 +1559,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>0.6</v>
@@ -1534,13 +1594,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>0.4</v>
@@ -1569,13 +1629,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>2.5</v>
@@ -1604,13 +1664,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24">
         <v>2.8</v>
@@ -1639,13 +1699,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1674,16 +1734,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1709,16 +1769,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1744,16 +1804,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1779,16 +1839,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
         <v>38</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1814,16 +1874,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
         <v>40</v>
-      </c>
-      <c r="I30" t="s">
-        <v>41</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1849,16 +1909,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1884,16 +1944,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1919,16 +1979,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1954,16 +2014,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1989,16 +2049,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2024,16 +2084,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2059,16 +2119,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2094,16 +2154,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2129,16 +2189,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2164,16 +2224,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
         <v>51</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I40" t="s">
-        <v>52</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2199,16 +2259,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
         <v>53</v>
-      </c>
-      <c r="I41" t="s">
-        <v>54</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2234,16 +2294,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2269,16 +2329,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2304,16 +2364,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2339,16 +2399,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2374,16 +2434,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2409,16 +2469,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2444,16 +2504,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" t="s">
         <v>61</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" t="s">
-        <v>62</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2479,16 +2539,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
         <v>63</v>
-      </c>
-      <c r="I49" t="s">
-        <v>64</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2514,16 +2574,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2549,16 +2609,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s">
         <v>66</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" t="s">
-        <v>67</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2584,16 +2644,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2619,16 +2679,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2654,16 +2714,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
         <v>68</v>
-      </c>
-      <c r="I54" t="s">
-        <v>69</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2689,16 +2749,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2724,16 +2784,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2759,16 +2819,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57">
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2794,16 +2854,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2829,16 +2889,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2864,16 +2924,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2899,16 +2959,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2934,16 +2994,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62">
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2969,16 +3029,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3004,16 +3064,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3039,16 +3099,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3074,13 +3134,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -3109,16 +3169,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3144,16 +3204,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68">
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3179,16 +3239,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3214,16 +3274,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70">
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3249,16 +3309,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>84</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
       <c r="I71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3284,16 +3344,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
         <v>85</v>
-      </c>
-      <c r="I72" t="s">
-        <v>86</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3319,16 +3379,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" t="s">
         <v>87</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I73" t="s">
-        <v>88</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3354,16 +3414,16 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3389,27 +3449,343 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
         <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F77" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
+        <v>99</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
+        <v>101</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/staticdata/t_static_data.xlsx
+++ b/staticdata/t_static_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workspacegit\material-manage\staticdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532A27F-94A5-461F-8A63-062C758662F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF44F3B-E222-4720-ACDB-6B2EF769EE2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1095" windowWidth="15375" windowHeight="9615" xr2:uid="{8DEE5ADC-4333-4CD8-B85D-CE9A221104DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DEE5ADC-4333-4CD8-B85D-CE9A221104DA}"/>
   </bookViews>
   <sheets>
     <sheet name="t_static_data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="113">
   <si>
     <t>模具类型</t>
   </si>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sort_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>板厚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +451,24 @@
   <si>
     <t>code_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取人</t>
+  </si>
+  <si>
+    <t>RECEIVER_TYPE</t>
+  </si>
+  <si>
+    <t>加运妹快递</t>
+  </si>
+  <si>
+    <t>速尔快递</t>
+  </si>
+  <si>
+    <t>盛辉物流</t>
+  </si>
+  <si>
+    <t>司机送货</t>
   </si>
 </sst>
 </file>
@@ -500,7 +514,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99AF19-65C1-461C-909C-EF41E1F3A0B7}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,10 +859,9 @@
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -862,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
@@ -871,13 +890,10 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -908,11 +924,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -943,11 +956,8 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -978,11 +988,8 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1013,11 +1020,8 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1048,11 +1052,8 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1083,11 +1084,8 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1118,11 +1116,8 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1153,11 +1148,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1188,11 +1180,8 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1223,11 +1212,8 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1258,11 +1244,8 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1293,11 +1276,8 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1314,13 +1294,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>30</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1328,11 +1308,8 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1349,13 +1326,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>1.6</v>
@@ -1363,11 +1340,8 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1384,13 +1358,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>1.5</v>
@@ -1398,11 +1372,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1419,13 +1390,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17">
         <v>1.4</v>
@@ -1433,11 +1404,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1454,13 +1422,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -1468,11 +1436,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1489,13 +1454,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1503,11 +1468,8 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1524,13 +1486,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>0.8</v>
@@ -1538,11 +1500,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1559,13 +1518,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>0.6</v>
@@ -1573,11 +1532,8 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1594,13 +1550,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>0.4</v>
@@ -1608,11 +1564,8 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1629,13 +1582,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>2.5</v>
@@ -1643,11 +1596,8 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1664,13 +1614,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24">
         <v>2.8</v>
@@ -1678,11 +1628,8 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1699,13 +1646,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1713,11 +1660,8 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1734,25 +1678,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1769,25 +1710,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1804,25 +1742,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1839,25 +1774,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
         <v>37</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>38</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1874,25 +1806,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
         <v>39</v>
       </c>
-      <c r="I30" t="s">
-        <v>40</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1909,25 +1838,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1944,25 +1870,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1979,25 +1902,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2014,25 +1934,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2049,25 +1966,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2084,25 +1998,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2119,25 +2030,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2154,25 +2062,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2189,25 +2094,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2224,25 +2126,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s">
         <v>50</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>51</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2259,25 +2158,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s">
         <v>52</v>
       </c>
-      <c r="I41" t="s">
-        <v>53</v>
-      </c>
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2294,25 +2190,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2329,25 +2222,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2364,25 +2254,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2399,25 +2286,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2434,25 +2318,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2469,25 +2350,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2504,25 +2382,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
         <v>60</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" t="s">
-        <v>61</v>
-      </c>
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2539,25 +2414,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" t="s">
         <v>62</v>
       </c>
-      <c r="I49" t="s">
-        <v>63</v>
-      </c>
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2574,25 +2446,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2609,25 +2478,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
         <v>65</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" t="s">
-        <v>66</v>
-      </c>
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2644,25 +2510,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2679,25 +2542,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2714,25 +2574,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" t="s">
         <v>67</v>
       </c>
-      <c r="I54" t="s">
-        <v>68</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="K54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2749,25 +2606,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2784,25 +2638,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2819,25 +2670,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57">
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2854,25 +2702,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
-      <c r="K58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2889,25 +2734,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2924,25 +2766,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2959,25 +2798,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2994,25 +2830,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62">
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3029,25 +2862,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3064,25 +2894,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3099,25 +2926,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65">
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3134,13 +2958,13 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -3148,11 +2972,8 @@
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="K66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3169,25 +2990,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="K67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3204,25 +3022,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68">
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="K68">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3239,25 +3054,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3274,25 +3086,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70">
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3309,25 +3118,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>83</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
       <c r="I71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3344,25 +3150,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="H72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
         <v>84</v>
       </c>
-      <c r="I72" t="s">
-        <v>85</v>
-      </c>
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3379,25 +3182,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
         <v>86</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" t="s">
-        <v>87</v>
-      </c>
       <c r="J73">
         <v>0</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3414,25 +3214,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3449,25 +3246,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3484,25 +3278,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" t="s">
         <v>92</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-      <c r="I76" t="s">
-        <v>93</v>
-      </c>
       <c r="J76">
         <v>0</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3519,25 +3310,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77" t="s">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s">
         <v>94</v>
       </c>
-      <c r="I77" t="s">
-        <v>95</v>
-      </c>
       <c r="J77">
         <v>0</v>
       </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3554,25 +3342,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
         <v>96</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>97</v>
       </c>
-      <c r="I78" t="s">
-        <v>98</v>
-      </c>
       <c r="J78">
         <v>0</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3589,25 +3374,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3624,25 +3406,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3659,25 +3438,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G81">
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3694,25 +3470,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G82">
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="K82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3729,25 +3502,22 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F83" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" t="s">
         <v>103</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
-      </c>
-      <c r="I83" t="s">
-        <v>104</v>
-      </c>
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3764,22 +3534,147 @@
         <v>43471.650243055556</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s">
         <v>105</v>
       </c>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
       <c r="J84">
         <v>0</v>
       </c>
-      <c r="K84">
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="2">
         <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="2">
+        <v>3</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>43471.650243055556</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="2">
+        <v>4</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
